--- a/secteur-action-publique/logement-ville/departements/barometre-resultats-logement-ville-departements-synthese.xlsx
+++ b/secteur-action-publique/logement-ville/departements/barometre-resultats-logement-ville-departements-synthese.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="573">
   <si>
     <t>mesure</t>
   </si>
@@ -176,10 +176,10 @@
     <t>Ain</t>
   </si>
   <si>
-    <t>2543.0</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
+    <t>3640.0</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
   </si>
   <si>
     <t>0.0</t>
@@ -215,7 +215,7 @@
     <t>-4.0</t>
   </si>
   <si>
-    <t>personnes dans l'année</t>
+    <t>personnes dans l'année*</t>
   </si>
   <si>
     <t>02</t>
@@ -224,7 +224,7 @@
     <t>Aisne</t>
   </si>
   <si>
-    <t>2922.0</t>
+    <t>4103.0</t>
   </si>
   <si>
     <t>326.0</t>
@@ -245,7 +245,7 @@
     <t>Allier</t>
   </si>
   <si>
-    <t>1745.0</t>
+    <t>2565.0</t>
   </si>
   <si>
     <t>90.0</t>
@@ -263,7 +263,7 @@
     <t>Alpes-de-Haute-Provence</t>
   </si>
   <si>
-    <t>738.0</t>
+    <t>1052.0</t>
   </si>
   <si>
     <t>53.0</t>
@@ -284,7 +284,7 @@
     <t>Hautes-Alpes</t>
   </si>
   <si>
-    <t>519.0</t>
+    <t>756.0</t>
   </si>
   <si>
     <t>88.0</t>
@@ -296,7 +296,7 @@
     <t>Alpes-Maritimes</t>
   </si>
   <si>
-    <t>933.0</t>
+    <t>1371.0</t>
   </si>
   <si>
     <t>392.0</t>
@@ -317,7 +317,7 @@
     <t>Ardèche</t>
   </si>
   <si>
-    <t>1788.0</t>
+    <t>2605.0</t>
   </si>
   <si>
     <t>132.0</t>
@@ -335,7 +335,7 @@
     <t>Ardennes</t>
   </si>
   <si>
-    <t>1452.0</t>
+    <t>2156.0</t>
   </si>
   <si>
     <t>147.0</t>
@@ -356,7 +356,7 @@
     <t>Ariège</t>
   </si>
   <si>
-    <t>811.0</t>
+    <t>1218.0</t>
   </si>
   <si>
     <t>35.0</t>
@@ -377,7 +377,7 @@
     <t>Aube</t>
   </si>
   <si>
-    <t>1311.0</t>
+    <t>1951.0</t>
   </si>
   <si>
     <t>211.0</t>
@@ -398,7 +398,7 @@
     <t>Aude</t>
   </si>
   <si>
-    <t>1813.0</t>
+    <t>2512.0</t>
   </si>
   <si>
     <t>238.0</t>
@@ -419,7 +419,7 @@
     <t>Aveyron</t>
   </si>
   <si>
-    <t>1694.0</t>
+    <t>2485.0</t>
   </si>
   <si>
     <t>17.0</t>
@@ -431,7 +431,7 @@
     <t>Bouches-du-Rhône</t>
   </si>
   <si>
-    <t>3046.0</t>
+    <t>4260.0</t>
   </si>
   <si>
     <t>1324.0</t>
@@ -452,7 +452,7 @@
     <t>Calvados</t>
   </si>
   <si>
-    <t>3296.0</t>
+    <t>4804.0</t>
   </si>
   <si>
     <t>387.0</t>
@@ -473,7 +473,7 @@
     <t>Cantal</t>
   </si>
   <si>
-    <t>759.0</t>
+    <t>1132.0</t>
   </si>
   <si>
     <t>42.0</t>
@@ -491,7 +491,7 @@
     <t>Charente</t>
   </si>
   <si>
-    <t>1920.0</t>
+    <t>2749.0</t>
   </si>
   <si>
     <t>191.0</t>
@@ -503,7 +503,7 @@
     <t>Charente-Maritime</t>
   </si>
   <si>
-    <t>3432.0</t>
+    <t>4837.0</t>
   </si>
   <si>
     <t>339.0</t>
@@ -524,7 +524,7 @@
     <t>Cher</t>
   </si>
   <si>
-    <t>1359.0</t>
+    <t>1925.0</t>
   </si>
   <si>
     <t>161.0</t>
@@ -542,7 +542,7 @@
     <t>Corrèze</t>
   </si>
   <si>
-    <t>1466.0</t>
+    <t>2105.0</t>
   </si>
   <si>
     <t>70.0</t>
@@ -563,7 +563,7 @@
     <t>Côte-d'Or</t>
   </si>
   <si>
-    <t>2091.0</t>
+    <t>3037.0</t>
   </si>
   <si>
     <t>319.0</t>
@@ -578,7 +578,7 @@
     <t>Côtes-d'Armor</t>
   </si>
   <si>
-    <t>3353.0</t>
+    <t>4946.0</t>
   </si>
   <si>
     <t>233.0</t>
@@ -596,7 +596,7 @@
     <t>Creuse</t>
   </si>
   <si>
-    <t>858.0</t>
+    <t>1235.0</t>
   </si>
   <si>
     <t>84.0</t>
@@ -617,7 +617,7 @@
     <t>Dordogne</t>
   </si>
   <si>
-    <t>2015.0</t>
+    <t>2937.0</t>
   </si>
   <si>
     <t>101.0</t>
@@ -635,7 +635,7 @@
     <t>Doubs</t>
   </si>
   <si>
-    <t>2312.0</t>
+    <t>3403.0</t>
   </si>
   <si>
     <t>394.0</t>
@@ -656,7 +656,7 @@
     <t>Drôme</t>
   </si>
   <si>
-    <t>2579.0</t>
+    <t>3677.0</t>
   </si>
   <si>
     <t>176.0</t>
@@ -674,7 +674,7 @@
     <t>Eure</t>
   </si>
   <si>
-    <t>2871.0</t>
+    <t>4137.0</t>
   </si>
   <si>
     <t>407.0</t>
@@ -695,7 +695,7 @@
     <t>Eure-et-Loir</t>
   </si>
   <si>
-    <t>2068.0</t>
+    <t>2924.0</t>
   </si>
   <si>
     <t>249.0</t>
@@ -713,7 +713,7 @@
     <t>Finistère</t>
   </si>
   <si>
-    <t>6093.0</t>
+    <t>8735.0</t>
   </si>
   <si>
     <t>299.0</t>
@@ -731,9 +731,6 @@
     <t>Corse-du-Sud</t>
   </si>
   <si>
-    <t>155.0</t>
-  </si>
-  <si>
     <t>66.0</t>
   </si>
   <si>
@@ -743,7 +740,7 @@
     <t>Haute-Corse</t>
   </si>
   <si>
-    <t>349.0</t>
+    <t>488.0</t>
   </si>
   <si>
     <t>29.0</t>
@@ -761,7 +758,7 @@
     <t>Gard</t>
   </si>
   <si>
-    <t>3988.0</t>
+    <t>5447.0</t>
   </si>
   <si>
     <t>343.0</t>
@@ -776,7 +773,7 @@
     <t>Haute-Garonne</t>
   </si>
   <si>
-    <t>3692.0</t>
+    <t>5300.0</t>
   </si>
   <si>
     <t>1927.0</t>
@@ -797,7 +794,7 @@
     <t>Gers</t>
   </si>
   <si>
-    <t>1071.0</t>
+    <t>1510.0</t>
   </si>
   <si>
     <t>-7.0</t>
@@ -809,7 +806,7 @@
     <t>Gironde</t>
   </si>
   <si>
-    <t>4416.0</t>
+    <t>6229.0</t>
   </si>
   <si>
     <t>1322.0</t>
@@ -830,7 +827,7 @@
     <t>Hérault</t>
   </si>
   <si>
-    <t>3135.0</t>
+    <t>4387.0</t>
   </si>
   <si>
     <t>772.0</t>
@@ -845,7 +842,7 @@
     <t>Ille-et-Vilaine</t>
   </si>
   <si>
-    <t>4259.0</t>
+    <t>6035.0</t>
   </si>
   <si>
     <t>812.0</t>
@@ -863,7 +860,7 @@
     <t>Indre</t>
   </si>
   <si>
-    <t>1042.0</t>
+    <t>1489.0</t>
   </si>
   <si>
     <t>38.0</t>
@@ -875,7 +872,7 @@
     <t>Indre-et-Loire</t>
   </si>
   <si>
-    <t>2026.0</t>
+    <t>2952.0</t>
   </si>
   <si>
     <t>469.0</t>
@@ -896,7 +893,7 @@
     <t>Isère</t>
   </si>
   <si>
-    <t>4806.0</t>
+    <t>7038.0</t>
   </si>
   <si>
     <t>986.0</t>
@@ -914,7 +911,7 @@
     <t>Jura</t>
   </si>
   <si>
-    <t>1442.0</t>
+    <t>2177.0</t>
   </si>
   <si>
     <t>218.0</t>
@@ -926,7 +923,7 @@
     <t>Landes</t>
   </si>
   <si>
-    <t>2243.0</t>
+    <t>3140.0</t>
   </si>
   <si>
     <t>136.0</t>
@@ -938,7 +935,7 @@
     <t>Loir-et-Cher</t>
   </si>
   <si>
-    <t>1585.0</t>
+    <t>2245.0</t>
   </si>
   <si>
     <t>222.0</t>
@@ -950,7 +947,7 @@
     <t>Loire</t>
   </si>
   <si>
-    <t>4432.0</t>
+    <t>6231.0</t>
   </si>
   <si>
     <t>304.0</t>
@@ -968,7 +965,7 @@
     <t>Haute-Loire</t>
   </si>
   <si>
-    <t>1816.0</t>
+    <t>2609.0</t>
   </si>
   <si>
     <t>86.0</t>
@@ -980,7 +977,7 @@
     <t>Loire-Atlantique</t>
   </si>
   <si>
-    <t>5697.0</t>
+    <t>8240.0</t>
   </si>
   <si>
     <t>1111.0</t>
@@ -1001,7 +998,7 @@
     <t>Loiret</t>
   </si>
   <si>
-    <t>2769.0</t>
+    <t>3943.0</t>
   </si>
   <si>
     <t>554.0</t>
@@ -1022,7 +1019,7 @@
     <t>Lot</t>
   </si>
   <si>
-    <t>1098.0</t>
+    <t>1559.0</t>
   </si>
   <si>
     <t>47</t>
@@ -1031,7 +1028,7 @@
     <t>Lot-et-Garonne</t>
   </si>
   <si>
-    <t>2088.0</t>
+    <t>2851.0</t>
   </si>
   <si>
     <t>10.0</t>
@@ -1043,7 +1040,7 @@
     <t>Lozère</t>
   </si>
   <si>
-    <t>430.0</t>
+    <t>654.0</t>
   </si>
   <si>
     <t>1450.0</t>
@@ -1055,7 +1052,7 @@
     <t>Maine-et-Loire</t>
   </si>
   <si>
-    <t>4364.0</t>
+    <t>6185.0</t>
   </si>
   <si>
     <t>561.0</t>
@@ -1073,7 +1070,7 @@
     <t>Manche</t>
   </si>
   <si>
-    <t>2749.0</t>
+    <t>4017.0</t>
   </si>
   <si>
     <t>201.0</t>
@@ -1088,7 +1085,7 @@
     <t>Marne</t>
   </si>
   <si>
-    <t>1687.0</t>
+    <t>2454.0</t>
   </si>
   <si>
     <t>405.0</t>
@@ -1109,7 +1106,7 @@
     <t>Haute-Marne</t>
   </si>
   <si>
-    <t>1001.0</t>
+    <t>1435.0</t>
   </si>
   <si>
     <t>81.0</t>
@@ -1127,7 +1124,7 @@
     <t>Mayenne</t>
   </si>
   <si>
-    <t>1546.0</t>
+    <t>2270.0</t>
   </si>
   <si>
     <t>174.0</t>
@@ -1142,7 +1139,7 @@
     <t>Meurthe-et-Moselle</t>
   </si>
   <si>
-    <t>3081.0</t>
+    <t>4473.0</t>
   </si>
   <si>
     <t>341.0</t>
@@ -1160,9 +1157,6 @@
     <t>Meuse</t>
   </si>
   <si>
-    <t>1041.0</t>
-  </si>
-  <si>
     <t>-17.0</t>
   </si>
   <si>
@@ -1172,7 +1166,7 @@
     <t>Morbihan</t>
   </si>
   <si>
-    <t>4535.0</t>
+    <t>6463.0</t>
   </si>
   <si>
     <t>57</t>
@@ -1181,7 +1175,7 @@
     <t>Moselle</t>
   </si>
   <si>
-    <t>5094.0</t>
+    <t>7373.0</t>
   </si>
   <si>
     <t>741.0</t>
@@ -1199,7 +1193,7 @@
     <t>Nièvre</t>
   </si>
   <si>
-    <t>729.0</t>
+    <t>1145.0</t>
   </si>
   <si>
     <t>16.0</t>
@@ -1211,7 +1205,7 @@
     <t>Nord</t>
   </si>
   <si>
-    <t>12901.0</t>
+    <t>17822.0</t>
   </si>
   <si>
     <t>3247.0</t>
@@ -1229,7 +1223,7 @@
     <t>Oise</t>
   </si>
   <si>
-    <t>3401.0</t>
+    <t>4783.0</t>
   </si>
   <si>
     <t>618.0</t>
@@ -1247,7 +1241,7 @@
     <t>Orne</t>
   </si>
   <si>
-    <t>1718.0</t>
+    <t>2525.0</t>
   </si>
   <si>
     <t>216.0</t>
@@ -1265,7 +1259,7 @@
     <t>Pas-de-Calais</t>
   </si>
   <si>
-    <t>10616.0</t>
+    <t>14581.0</t>
   </si>
   <si>
     <t>1397.0</t>
@@ -1286,7 +1280,7 @@
     <t>Puy-de-Dôme</t>
   </si>
   <si>
-    <t>3076.0</t>
+    <t>4517.0</t>
   </si>
   <si>
     <t>189.0</t>
@@ -1304,7 +1298,7 @@
     <t>Pyrénées-Atlantiques</t>
   </si>
   <si>
-    <t>2205.0</t>
+    <t>3144.0</t>
   </si>
   <si>
     <t>361.0</t>
@@ -1322,7 +1316,7 @@
     <t>Hautes-Pyrénées</t>
   </si>
   <si>
-    <t>1257.0</t>
+    <t>1808.0</t>
   </si>
   <si>
     <t>68.0</t>
@@ -1334,7 +1328,7 @@
     <t>Pyrénées-Orientales</t>
   </si>
   <si>
-    <t>1226.0</t>
+    <t>1814.0</t>
   </si>
   <si>
     <t>178.0</t>
@@ -1349,7 +1343,7 @@
     <t>Bas-Rhin</t>
   </si>
   <si>
-    <t>3724.0</t>
+    <t>5398.0</t>
   </si>
   <si>
     <t>845.0</t>
@@ -1364,7 +1358,7 @@
     <t>Haut-Rhin</t>
   </si>
   <si>
-    <t>1938.0</t>
+    <t>2945.0</t>
   </si>
   <si>
     <t>385.0</t>
@@ -1382,7 +1376,7 @@
     <t>Rhône</t>
   </si>
   <si>
-    <t>3479.0</t>
+    <t>5035.0</t>
   </si>
   <si>
     <t>1500.0</t>
@@ -1403,7 +1397,7 @@
     <t>Haute-Saône</t>
   </si>
   <si>
-    <t>1602.0</t>
+    <t>2439.0</t>
   </si>
   <si>
     <t>97.0</t>
@@ -1415,7 +1409,7 @@
     <t>Saône-et-Loire</t>
   </si>
   <si>
-    <t>3484.0</t>
+    <t>5028.0</t>
   </si>
   <si>
     <t>288.0</t>
@@ -1427,7 +1421,7 @@
     <t>Sarthe</t>
   </si>
   <si>
-    <t>2723.0</t>
+    <t>4111.0</t>
   </si>
   <si>
     <t>365.0</t>
@@ -1445,7 +1439,7 @@
     <t>Savoie</t>
   </si>
   <si>
-    <t>1191.0</t>
+    <t>1767.0</t>
   </si>
   <si>
     <t>32.0</t>
@@ -1457,7 +1451,7 @@
     <t>Haute-Savoie</t>
   </si>
   <si>
-    <t>828.0</t>
+    <t>1336.0</t>
   </si>
   <si>
     <t>572.0</t>
@@ -1472,7 +1466,7 @@
     <t>Paris</t>
   </si>
   <si>
-    <t>544.0</t>
+    <t>764.0</t>
   </si>
   <si>
     <t>2136.0</t>
@@ -1493,7 +1487,7 @@
     <t>Seine-Maritime</t>
   </si>
   <si>
-    <t>5060.0</t>
+    <t>7333.0</t>
   </si>
   <si>
     <t>854.0</t>
@@ -1511,7 +1505,7 @@
     <t>Seine-et-Marne</t>
   </si>
   <si>
-    <t>7080.0</t>
+    <t>9738.0</t>
   </si>
   <si>
     <t>1276.0</t>
@@ -1529,7 +1523,7 @@
     <t>Yvelines</t>
   </si>
   <si>
-    <t>3132.0</t>
+    <t>4541.0</t>
   </si>
   <si>
     <t>1186.0</t>
@@ -1547,7 +1541,7 @@
     <t>Deux-Sèvres</t>
   </si>
   <si>
-    <t>3146.0</t>
+    <t>4339.0</t>
   </si>
   <si>
     <t>152.0</t>
@@ -1562,7 +1556,7 @@
     <t>Somme</t>
   </si>
   <si>
-    <t>3595.0</t>
+    <t>5010.0</t>
   </si>
   <si>
     <t>526.0</t>
@@ -1580,7 +1574,7 @@
     <t>Tarn</t>
   </si>
   <si>
-    <t>3323.0</t>
+    <t>4622.0</t>
   </si>
   <si>
     <t>82</t>
@@ -1589,7 +1583,7 @@
     <t>Tarn-et-Garonne</t>
   </si>
   <si>
-    <t>1557.0</t>
+    <t>2208.0</t>
   </si>
   <si>
     <t>99.0</t>
@@ -1601,10 +1595,7 @@
     <t>Var</t>
   </si>
   <si>
-    <t>2034.0</t>
-  </si>
-  <si>
-    <t>488.0</t>
+    <t>2824.0</t>
   </si>
   <si>
     <t>418.0</t>
@@ -1616,7 +1607,7 @@
     <t>Vaucluse</t>
   </si>
   <si>
-    <t>2209.0</t>
+    <t>3090.0</t>
   </si>
   <si>
     <t>352.0</t>
@@ -1631,7 +1622,7 @@
     <t>Vendée</t>
   </si>
   <si>
-    <t>5186.0</t>
+    <t>7283.0</t>
   </si>
   <si>
     <t>127.0</t>
@@ -1646,7 +1637,7 @@
     <t>Vienne</t>
   </si>
   <si>
-    <t>2241.0</t>
+    <t>3194.0</t>
   </si>
   <si>
     <t>301.0</t>
@@ -1661,7 +1652,7 @@
     <t>Haute-Vienne</t>
   </si>
   <si>
-    <t>2014.0</t>
+    <t>2831.0</t>
   </si>
   <si>
     <t>268.0</t>
@@ -1679,7 +1670,7 @@
     <t>Vosges</t>
   </si>
   <si>
-    <t>2317.0</t>
+    <t>3348.0</t>
   </si>
   <si>
     <t>56.0</t>
@@ -1691,7 +1682,7 @@
     <t>Yonne</t>
   </si>
   <si>
-    <t>1769.0</t>
+    <t>2598.0</t>
   </si>
   <si>
     <t>65.0</t>
@@ -1703,7 +1694,7 @@
     <t>Territoire de Belfort</t>
   </si>
   <si>
-    <t>591.0</t>
+    <t>886.0</t>
   </si>
   <si>
     <t>73.0</t>
@@ -1715,7 +1706,7 @@
     <t>Essonne</t>
   </si>
   <si>
-    <t>4756.0</t>
+    <t>6519.0</t>
   </si>
   <si>
     <t>1206.0</t>
@@ -1733,7 +1724,7 @@
     <t>Hauts-de-Seine</t>
   </si>
   <si>
-    <t>748.0</t>
+    <t>1120.0</t>
   </si>
   <si>
     <t>1247.0</t>
@@ -1751,7 +1742,7 @@
     <t>Seine-Saint-Denis</t>
   </si>
   <si>
-    <t>5362.0</t>
+    <t>7063.0</t>
   </si>
   <si>
     <t>2070.0</t>
@@ -1769,7 +1760,7 @@
     <t>Val-de-Marne</t>
   </si>
   <si>
-    <t>1882.0</t>
+    <t>2622.0</t>
   </si>
   <si>
     <t>1388.0</t>
@@ -1787,7 +1778,7 @@
     <t>Val-d'Oise</t>
   </si>
   <si>
-    <t>5479.0</t>
+    <t>7345.0</t>
   </si>
   <si>
     <t>1113.0</t>
@@ -1799,7 +1790,7 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>293.0</t>
+    <t>877.0</t>
   </si>
   <si>
     <t>-39.0</t>
@@ -1814,7 +1805,7 @@
     <t>Martinique</t>
   </si>
   <si>
-    <t>137.0</t>
+    <t>444.0</t>
   </si>
   <si>
     <t>973</t>
@@ -1832,7 +1823,7 @@
     <t>La Réunion</t>
   </si>
   <si>
-    <t>1329.0</t>
+    <t>2348.0</t>
   </si>
   <si>
     <t>893.0</t>
@@ -2497,13 +2488,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2512,7 +2503,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -2529,28 +2520,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F3" t="s">
         <v>570</v>
-      </c>
-      <c r="E3" t="s">
-        <v>571</v>
-      </c>
-      <c r="F3" t="s">
-        <v>573</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -5115,7 +5106,7 @@
         <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5124,7 +5115,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -5153,7 +5144,7 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -5369,13 +5360,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" t="s">
         <v>207</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>208</v>
-      </c>
-      <c r="F2" t="s">
-        <v>209</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5384,7 +5375,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -5401,10 +5392,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
         <v>207</v>
-      </c>
-      <c r="E3" t="s">
-        <v>208</v>
       </c>
       <c r="F3" t="s">
         <v>109</v>
@@ -5413,16 +5404,16 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" t="s">
         <v>211</v>
-      </c>
-      <c r="K3" t="s">
-        <v>212</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -5499,13 +5490,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" t="s">
         <v>213</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>214</v>
-      </c>
-      <c r="F2" t="s">
-        <v>215</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5514,7 +5505,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -5531,19 +5522,19 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" t="s">
         <v>213</v>
       </c>
-      <c r="E3" t="s">
-        <v>214</v>
-      </c>
       <c r="F3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -5629,13 +5620,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" t="s">
         <v>218</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>219</v>
-      </c>
-      <c r="F2" t="s">
-        <v>220</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5644,7 +5635,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -5661,28 +5652,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" t="s">
         <v>218</v>
       </c>
-      <c r="E3" t="s">
-        <v>219</v>
-      </c>
       <c r="F3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K3" t="s">
         <v>223</v>
-      </c>
-      <c r="K3" t="s">
-        <v>224</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -5759,13 +5750,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" t="s">
         <v>225</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>226</v>
-      </c>
-      <c r="F2" t="s">
-        <v>227</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5774,7 +5765,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -5791,10 +5782,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" t="s">
         <v>225</v>
-      </c>
-      <c r="E3" t="s">
-        <v>226</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -5812,7 +5803,7 @@
         <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -5889,13 +5880,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" t="s">
         <v>229</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>230</v>
-      </c>
-      <c r="F2" t="s">
-        <v>231</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5904,7 +5895,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -5921,28 +5912,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" t="s">
         <v>229</v>
       </c>
-      <c r="E3" t="s">
-        <v>230</v>
-      </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K3" t="s">
         <v>234</v>
-      </c>
-      <c r="K3" t="s">
-        <v>235</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -6019,13 +6010,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" t="s">
         <v>236</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>237</v>
-      </c>
-      <c r="F2" t="s">
-        <v>238</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6034,7 +6025,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -6051,19 +6042,19 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" t="s">
         <v>236</v>
       </c>
-      <c r="E3" t="s">
-        <v>237</v>
-      </c>
       <c r="F3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -6149,13 +6140,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" t="s">
         <v>241</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>242</v>
-      </c>
-      <c r="F2" t="s">
-        <v>243</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6164,7 +6155,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -6181,25 +6172,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" t="s">
         <v>241</v>
       </c>
-      <c r="E3" t="s">
-        <v>242</v>
-      </c>
       <c r="F3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K3" t="s">
         <v>64</v>
@@ -6279,13 +6270,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" t="s">
         <v>247</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>248</v>
-      </c>
-      <c r="F2" t="s">
-        <v>249</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6294,7 +6285,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -6311,10 +6302,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" t="s">
         <v>247</v>
-      </c>
-      <c r="E3" t="s">
-        <v>248</v>
       </c>
       <c r="F3" t="s">
         <v>155</v>
@@ -6332,7 +6323,7 @@
         <v>201</v>
       </c>
       <c r="K3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -6409,13 +6400,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" t="s">
         <v>251</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>252</v>
-      </c>
-      <c r="F2" t="s">
-        <v>253</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6424,7 +6415,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -6441,28 +6432,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" t="s">
         <v>251</v>
       </c>
-      <c r="E3" t="s">
-        <v>252</v>
-      </c>
       <c r="F3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>255</v>
+      </c>
+      <c r="K3" t="s">
         <v>256</v>
-      </c>
-      <c r="K3" t="s">
-        <v>257</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -6539,13 +6530,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" t="s">
         <v>258</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>259</v>
-      </c>
-      <c r="F2" t="s">
-        <v>260</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6554,7 +6545,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -6571,25 +6562,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" t="s">
         <v>258</v>
       </c>
-      <c r="E3" t="s">
-        <v>259</v>
-      </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K3" t="s">
         <v>81</v>
@@ -6799,13 +6790,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" t="s">
         <v>264</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>265</v>
-      </c>
-      <c r="F2" t="s">
-        <v>266</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6814,7 +6805,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -6831,13 +6822,13 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" t="s">
         <v>264</v>
       </c>
-      <c r="E3" t="s">
-        <v>265</v>
-      </c>
       <c r="F3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -6929,13 +6920,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" t="s">
         <v>268</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>269</v>
-      </c>
-      <c r="F2" t="s">
-        <v>270</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6944,7 +6935,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -6961,10 +6952,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" t="s">
         <v>268</v>
-      </c>
-      <c r="E3" t="s">
-        <v>269</v>
       </c>
       <c r="F3" t="s">
         <v>137</v>
@@ -6973,13 +6964,13 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K3" t="s">
         <v>70</v>
@@ -7059,13 +7050,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" t="s">
         <v>272</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>273</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7074,7 +7065,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -7091,13 +7082,13 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" t="s">
         <v>272</v>
       </c>
-      <c r="E3" t="s">
-        <v>273</v>
-      </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -7189,13 +7180,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" t="s">
         <v>276</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>277</v>
-      </c>
-      <c r="F2" t="s">
-        <v>278</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7204,7 +7195,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -7221,13 +7212,13 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" t="s">
         <v>276</v>
       </c>
-      <c r="E3" t="s">
-        <v>277</v>
-      </c>
       <c r="F3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -7239,10 +7230,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K3" t="s">
         <v>280</v>
-      </c>
-      <c r="K3" t="s">
-        <v>281</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -7319,13 +7310,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" t="s">
         <v>282</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>283</v>
-      </c>
-      <c r="F2" t="s">
-        <v>284</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7334,7 +7325,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -7351,13 +7342,13 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" t="s">
         <v>282</v>
       </c>
-      <c r="E3" t="s">
-        <v>283</v>
-      </c>
       <c r="F3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -7449,13 +7440,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" t="s">
         <v>286</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>287</v>
-      </c>
-      <c r="F2" t="s">
-        <v>288</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7464,7 +7455,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -7481,28 +7472,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" t="s">
         <v>286</v>
       </c>
-      <c r="E3" t="s">
-        <v>287</v>
-      </c>
       <c r="F3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K3" t="s">
         <v>291</v>
-      </c>
-      <c r="K3" t="s">
-        <v>292</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -7579,13 +7570,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" t="s">
         <v>293</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>294</v>
-      </c>
-      <c r="F2" t="s">
-        <v>295</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7594,7 +7585,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -7611,28 +7602,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" t="s">
         <v>293</v>
       </c>
-      <c r="E3" t="s">
-        <v>294</v>
-      </c>
       <c r="F3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K3" t="s">
         <v>298</v>
-      </c>
-      <c r="K3" t="s">
-        <v>299</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -7709,13 +7700,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" t="s">
         <v>300</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>301</v>
-      </c>
-      <c r="F2" t="s">
-        <v>302</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7724,7 +7715,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -7741,10 +7732,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" t="s">
         <v>300</v>
-      </c>
-      <c r="E3" t="s">
-        <v>301</v>
       </c>
       <c r="F3" t="s">
         <v>90</v>
@@ -7839,13 +7830,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" t="s">
         <v>303</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>304</v>
-      </c>
-      <c r="F2" t="s">
-        <v>305</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7854,7 +7845,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -7871,19 +7862,19 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" t="s">
         <v>303</v>
       </c>
-      <c r="E3" t="s">
-        <v>304</v>
-      </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -7892,7 +7883,7 @@
         <v>183</v>
       </c>
       <c r="K3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -7969,13 +7960,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" t="s">
         <v>307</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>308</v>
-      </c>
-      <c r="F2" t="s">
-        <v>309</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7984,7 +7975,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -8001,10 +7992,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" t="s">
         <v>307</v>
-      </c>
-      <c r="E3" t="s">
-        <v>308</v>
       </c>
       <c r="F3" t="s">
         <v>109</v>
@@ -8013,16 +8004,16 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -8229,13 +8220,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E2" t="s">
         <v>311</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>312</v>
-      </c>
-      <c r="F2" t="s">
-        <v>313</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8244,7 +8235,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -8261,19 +8252,19 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" t="s">
         <v>311</v>
       </c>
-      <c r="E3" t="s">
-        <v>312</v>
-      </c>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -8282,7 +8273,7 @@
         <v>155</v>
       </c>
       <c r="K3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -8359,13 +8350,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" t="s">
         <v>317</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>318</v>
-      </c>
-      <c r="F2" t="s">
-        <v>319</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8374,7 +8365,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -8391,10 +8382,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" t="s">
         <v>317</v>
-      </c>
-      <c r="E3" t="s">
-        <v>318</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -8409,10 +8400,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>319</v>
+      </c>
+      <c r="K3" t="s">
         <v>320</v>
-      </c>
-      <c r="K3" t="s">
-        <v>321</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -8489,13 +8480,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" t="s">
         <v>322</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>323</v>
-      </c>
-      <c r="F2" t="s">
-        <v>324</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8504,7 +8495,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -8521,28 +8512,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" t="s">
         <v>322</v>
       </c>
-      <c r="E3" t="s">
-        <v>323</v>
-      </c>
       <c r="F3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K3" t="s">
         <v>327</v>
-      </c>
-      <c r="K3" t="s">
-        <v>328</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -8619,13 +8610,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" t="s">
         <v>329</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>330</v>
-      </c>
-      <c r="F2" t="s">
-        <v>331</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8634,7 +8625,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -8651,10 +8642,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" t="s">
         <v>329</v>
-      </c>
-      <c r="E3" t="s">
-        <v>330</v>
       </c>
       <c r="F3" t="s">
         <v>144</v>
@@ -8663,16 +8654,16 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>332</v>
+      </c>
+      <c r="K3" t="s">
         <v>333</v>
-      </c>
-      <c r="K3" t="s">
-        <v>334</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -8749,13 +8740,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" t="s">
         <v>335</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>336</v>
-      </c>
-      <c r="F2" t="s">
-        <v>337</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8764,7 +8755,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -8781,13 +8772,13 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" t="s">
         <v>335</v>
       </c>
-      <c r="E3" t="s">
-        <v>336</v>
-      </c>
       <c r="F3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -8802,7 +8793,7 @@
         <v>163</v>
       </c>
       <c r="K3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -8879,13 +8870,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" t="s">
         <v>340</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>341</v>
-      </c>
-      <c r="F2" t="s">
-        <v>342</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8894,7 +8885,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -8911,28 +8902,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" t="s">
         <v>340</v>
       </c>
-      <c r="E3" t="s">
-        <v>341</v>
-      </c>
       <c r="F3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -9009,13 +9000,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" t="s">
         <v>346</v>
       </c>
-      <c r="E2" t="s">
-        <v>347</v>
-      </c>
       <c r="F2" t="s">
-        <v>348</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9024,7 +9015,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>348</v>
+        <v>226</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -9041,10 +9032,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" t="s">
         <v>346</v>
-      </c>
-      <c r="E3" t="s">
-        <v>347</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -9062,7 +9053,7 @@
         <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -9139,13 +9130,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" t="s">
         <v>350</v>
-      </c>
-      <c r="E2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F2" t="s">
-        <v>352</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9154,7 +9145,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -9171,10 +9162,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
         <v>113</v>
@@ -9183,7 +9174,7 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -9269,13 +9260,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" t="s">
         <v>353</v>
-      </c>
-      <c r="E2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F2" t="s">
-        <v>355</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9284,7 +9275,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -9301,25 +9292,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F3" t="s">
         <v>354</v>
-      </c>
-      <c r="F3" t="s">
-        <v>356</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K3" t="s">
         <v>64</v>
@@ -9399,13 +9390,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" t="s">
         <v>359</v>
-      </c>
-      <c r="E2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F2" t="s">
-        <v>361</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9414,7 +9405,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -9431,10 +9422,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F3" t="s">
         <v>122</v>
@@ -9449,10 +9440,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -9659,13 +9650,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" t="s">
         <v>363</v>
-      </c>
-      <c r="E2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F2" t="s">
-        <v>365</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9674,7 +9665,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -9691,25 +9682,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" t="s">
         <v>364</v>
-      </c>
-      <c r="F3" t="s">
-        <v>366</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K3" t="s">
         <v>51</v>
@@ -9789,13 +9780,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F2" t="s">
         <v>369</v>
-      </c>
-      <c r="E2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F2" t="s">
-        <v>371</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9804,7 +9795,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -9821,25 +9812,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3" t="s">
         <v>370</v>
-      </c>
-      <c r="F3" t="s">
-        <v>372</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K3" t="s">
         <v>202</v>
@@ -9919,13 +9910,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" t="s">
         <v>375</v>
-      </c>
-      <c r="E2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F2" t="s">
-        <v>377</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9934,7 +9925,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -9951,13 +9942,13 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" t="s">
         <v>376</v>
-      </c>
-      <c r="F3" t="s">
-        <v>378</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -9969,10 +9960,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -10049,13 +10040,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F2" t="s">
         <v>381</v>
-      </c>
-      <c r="E2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F2" t="s">
-        <v>383</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -10064,7 +10055,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -10081,28 +10072,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F3" t="s">
         <v>382</v>
-      </c>
-      <c r="F3" t="s">
-        <v>384</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -10179,13 +10170,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2" t="s">
         <v>388</v>
-      </c>
-      <c r="E2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F2" t="s">
-        <v>390</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -10194,7 +10185,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -10211,10 +10202,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F3" t="s">
         <v>130</v>
@@ -10223,16 +10214,16 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -10309,13 +10300,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F2" t="s">
         <v>394</v>
-      </c>
-      <c r="E2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F2" t="s">
-        <v>396</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -10324,7 +10315,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -10341,28 +10332,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F3" t="s">
         <v>395</v>
-      </c>
-      <c r="F3" t="s">
-        <v>397</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -10439,13 +10430,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F2" t="s">
         <v>400</v>
-      </c>
-      <c r="E2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F2" t="s">
-        <v>402</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -10454,7 +10445,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -10471,19 +10462,19 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -10492,7 +10483,7 @@
         <v>189</v>
       </c>
       <c r="K3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -10569,13 +10560,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F2" t="s">
         <v>404</v>
-      </c>
-      <c r="E2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F2" t="s">
-        <v>406</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -10584,7 +10575,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -10601,25 +10592,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K3" t="s">
         <v>82</v>
@@ -10699,13 +10690,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2" t="s">
         <v>409</v>
-      </c>
-      <c r="E2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F2" t="s">
-        <v>411</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -10714,7 +10705,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -10731,28 +10722,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F3" t="s">
         <v>410</v>
-      </c>
-      <c r="F3" t="s">
-        <v>412</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -10829,13 +10820,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F2" t="s">
         <v>414</v>
-      </c>
-      <c r="E2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F2" t="s">
-        <v>416</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -10844,7 +10835,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -10861,28 +10852,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -11089,13 +11080,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" t="s">
         <v>420</v>
-      </c>
-      <c r="E2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F2" t="s">
-        <v>422</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -11104,7 +11095,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -11121,28 +11112,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F3" t="s">
         <v>421</v>
-      </c>
-      <c r="F3" t="s">
-        <v>423</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -11219,13 +11210,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2" t="s">
         <v>427</v>
-      </c>
-      <c r="E2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F2" t="s">
-        <v>429</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -11234,7 +11225,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -11251,13 +11242,13 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F3" t="s">
         <v>428</v>
-      </c>
-      <c r="F3" t="s">
-        <v>430</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -11349,13 +11340,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2" t="s">
         <v>431</v>
-      </c>
-      <c r="E2" t="s">
-        <v>432</v>
-      </c>
-      <c r="F2" t="s">
-        <v>433</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -11364,7 +11355,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -11381,19 +11372,19 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F3" t="s">
         <v>432</v>
-      </c>
-      <c r="F3" t="s">
-        <v>434</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -11402,7 +11393,7 @@
         <v>164</v>
       </c>
       <c r="K3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -11479,13 +11470,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2" t="s">
         <v>435</v>
-      </c>
-      <c r="E2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F2" t="s">
-        <v>437</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -11494,7 +11485,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -11511,28 +11502,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F3" t="s">
         <v>436</v>
-      </c>
-      <c r="F3" t="s">
-        <v>438</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -11609,13 +11600,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F2" t="s">
         <v>441</v>
-      </c>
-      <c r="E2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F2" t="s">
-        <v>443</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -11624,7 +11615,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -11641,10 +11632,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F3" t="s">
         <v>156</v>
@@ -11662,7 +11653,7 @@
         <v>163</v>
       </c>
       <c r="K3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -11739,13 +11730,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2" t="s">
         <v>445</v>
-      </c>
-      <c r="E2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F2" t="s">
-        <v>447</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -11754,7 +11745,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -11771,25 +11762,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F3" t="s">
         <v>446</v>
-      </c>
-      <c r="F3" t="s">
-        <v>448</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K3" t="s">
         <v>109</v>
@@ -11869,13 +11860,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2" t="s">
         <v>450</v>
-      </c>
-      <c r="E2" t="s">
-        <v>451</v>
-      </c>
-      <c r="F2" t="s">
-        <v>452</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -11884,7 +11875,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -11901,28 +11892,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F3" t="s">
         <v>451</v>
-      </c>
-      <c r="F3" t="s">
-        <v>453</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -11999,13 +11990,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F2" t="s">
         <v>457</v>
-      </c>
-      <c r="E2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F2" t="s">
-        <v>459</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12014,7 +12005,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -12031,28 +12022,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F3" t="s">
         <v>458</v>
-      </c>
-      <c r="F3" t="s">
-        <v>460</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -12129,13 +12120,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2" t="s">
         <v>463</v>
-      </c>
-      <c r="E2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F2" t="s">
-        <v>465</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12144,7 +12135,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -12161,19 +12152,19 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F3" t="s">
         <v>464</v>
-      </c>
-      <c r="F3" t="s">
-        <v>466</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -12182,7 +12173,7 @@
         <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -12259,13 +12250,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F2" t="s">
         <v>469</v>
-      </c>
-      <c r="E2" t="s">
-        <v>470</v>
-      </c>
-      <c r="F2" t="s">
-        <v>471</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12274,7 +12265,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -12291,25 +12282,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F3" t="s">
         <v>470</v>
-      </c>
-      <c r="F3" t="s">
-        <v>472</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K3" t="s">
         <v>157</v>
@@ -12519,13 +12510,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F2" t="s">
         <v>475</v>
-      </c>
-      <c r="E2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F2" t="s">
-        <v>477</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12534,7 +12525,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -12551,19 +12542,19 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F3" t="s">
         <v>476</v>
-      </c>
-      <c r="F3" t="s">
-        <v>478</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -12572,7 +12563,7 @@
         <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -12649,13 +12640,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F2" t="s">
         <v>480</v>
-      </c>
-      <c r="E2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F2" t="s">
-        <v>482</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12664,7 +12655,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -12681,28 +12672,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" t="s">
         <v>481</v>
-      </c>
-      <c r="F3" t="s">
-        <v>483</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -12779,13 +12770,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F2" t="s">
         <v>486</v>
-      </c>
-      <c r="E2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F2" t="s">
-        <v>488</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12794,7 +12785,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -12811,25 +12802,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K3" t="s">
         <v>82</v>
@@ -12909,13 +12900,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F2" t="s">
         <v>489</v>
-      </c>
-      <c r="E2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F2" t="s">
-        <v>491</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12924,7 +12915,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -12941,13 +12932,13 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F3" t="s">
         <v>490</v>
-      </c>
-      <c r="F3" t="s">
-        <v>492</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -12962,7 +12953,7 @@
         <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -13039,13 +13030,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F2" t="s">
         <v>493</v>
-      </c>
-      <c r="E2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F2" t="s">
-        <v>495</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -13054,7 +13045,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -13071,19 +13062,19 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F3" t="s">
-        <v>496</v>
+        <v>208</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -13169,13 +13160,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -13184,7 +13175,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -13201,19 +13192,19 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F3" t="s">
         <v>498</v>
-      </c>
-      <c r="E3" t="s">
-        <v>499</v>
-      </c>
-      <c r="F3" t="s">
-        <v>501</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -13222,7 +13213,7 @@
         <v>195</v>
       </c>
       <c r="K3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -13299,13 +13290,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -13314,7 +13305,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -13331,13 +13322,13 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -13349,10 +13340,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -13429,13 +13420,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -13444,7 +13435,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -13461,13 +13452,13 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F3" t="s">
         <v>508</v>
-      </c>
-      <c r="E3" t="s">
-        <v>509</v>
-      </c>
-      <c r="F3" t="s">
-        <v>511</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -13479,10 +13470,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -13559,13 +13550,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -13574,7 +13565,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -13591,28 +13582,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F3" t="s">
         <v>513</v>
-      </c>
-      <c r="E3" t="s">
-        <v>514</v>
-      </c>
-      <c r="F3" t="s">
-        <v>516</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -13689,13 +13680,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -13704,7 +13695,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -13721,13 +13712,13 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -13739,10 +13730,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -13949,13 +13940,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -13964,7 +13955,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -13981,13 +13972,13 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -13999,10 +13990,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -14079,13 +14070,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -14094,7 +14085,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -14111,10 +14102,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F3" t="s">
         <v>75</v>
@@ -14123,13 +14114,13 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K3" t="s">
         <v>170</v>
@@ -14209,13 +14200,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -14224,7 +14215,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -14241,28 +14232,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F3" t="s">
         <v>531</v>
-      </c>
-      <c r="E3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F3" t="s">
-        <v>534</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -14339,13 +14330,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -14354,7 +14345,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -14371,28 +14362,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F3" t="s">
         <v>537</v>
-      </c>
-      <c r="E3" t="s">
-        <v>538</v>
-      </c>
-      <c r="F3" t="s">
-        <v>540</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -14469,13 +14460,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -14484,7 +14475,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -14501,28 +14492,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F3" t="s">
         <v>543</v>
-      </c>
-      <c r="E3" t="s">
-        <v>544</v>
-      </c>
-      <c r="F3" t="s">
-        <v>546</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -14599,13 +14590,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -14614,7 +14605,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -14631,25 +14622,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E3" t="s">
+        <v>547</v>
+      </c>
+      <c r="F3" t="s">
         <v>549</v>
-      </c>
-      <c r="E3" t="s">
-        <v>550</v>
-      </c>
-      <c r="F3" t="s">
-        <v>552</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="K3" t="s">
         <v>133</v>
@@ -14729,13 +14720,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -14744,7 +14735,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -14761,25 +14752,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F3" t="s">
         <v>555</v>
-      </c>
-      <c r="E3" t="s">
-        <v>556</v>
-      </c>
-      <c r="F3" t="s">
-        <v>558</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
@@ -14859,13 +14850,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -14874,7 +14865,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -14891,28 +14882,28 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="K3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -14989,13 +14980,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -15004,7 +14995,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -15021,10 +15012,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F3" t="s">
         <v>76</v>
@@ -15033,7 +15024,7 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -15119,22 +15110,22 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>509</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>211</v>
+        <v>509</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -15151,10 +15142,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F3" t="s">
         <v>144</v>
@@ -15163,16 +15154,16 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>

--- a/secteur-action-publique/logement-ville/departements/barometre-resultats-logement-ville-departements-synthese.xlsx
+++ b/secteur-action-publique/logement-ville/departements/barometre-resultats-logement-ville-departements-synthese.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4129" uniqueCount="693">
   <si>
     <t>mesure</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>0.0</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
   </si>
   <si>
     <t>11376.0</t>
@@ -2599,31 +2602,34 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -2632,25 +2638,25 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2724,13 +2730,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2738,58 +2744,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2863,13 +2872,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2877,58 +2886,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3002,34 +3014,37 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>690</v>
+        <v>691</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3103,13 +3118,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3117,58 +3132,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3242,13 +3260,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3256,58 +3274,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3381,13 +3402,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3395,58 +3416,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3520,13 +3544,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3534,58 +3558,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3659,13 +3686,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3673,58 +3700,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3798,13 +3828,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3812,49 +3842,52 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -3863,7 +3896,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3937,13 +3970,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3951,58 +3984,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4076,13 +4112,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4090,58 +4126,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4215,13 +4254,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4229,58 +4268,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4354,13 +4396,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4368,58 +4410,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4493,13 +4538,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4507,58 +4552,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4632,13 +4680,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4646,58 +4694,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4771,13 +4822,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4785,58 +4836,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4910,13 +4964,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4924,58 +4978,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5049,13 +5106,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5063,58 +5120,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5188,13 +5248,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5202,58 +5262,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5327,13 +5390,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5341,58 +5404,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5466,13 +5532,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5480,58 +5546,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5605,13 +5674,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5619,58 +5688,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
       <c r="H3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5744,13 +5816,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5758,58 +5830,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5883,13 +5958,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5897,58 +5972,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -6022,13 +6100,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6036,58 +6114,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -6161,13 +6242,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6175,58 +6256,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -6300,13 +6384,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6314,58 +6398,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -6439,13 +6526,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6453,58 +6540,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -6578,13 +6668,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6592,58 +6682,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -6717,13 +6810,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6731,58 +6824,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -6856,13 +6952,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6870,58 +6966,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -6995,13 +7094,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7009,58 +7108,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -7134,13 +7236,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7148,58 +7250,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -7273,13 +7378,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7287,58 +7392,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -7412,13 +7520,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7426,58 +7534,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -7551,13 +7662,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7565,58 +7676,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -7690,13 +7804,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7704,58 +7818,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -7829,13 +7946,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7843,58 +7960,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -7968,13 +8088,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7982,58 +8102,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -8107,13 +8230,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8121,58 +8244,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -8246,13 +8372,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8260,58 +8386,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -8385,13 +8514,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8399,58 +8528,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -8524,13 +8656,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8538,58 +8670,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -8663,13 +8798,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8677,58 +8812,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -8802,13 +8940,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8816,58 +8954,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
         <v>253</v>
       </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>252</v>
-      </c>
       <c r="K3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -8941,13 +9082,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8955,49 +9096,52 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -9006,7 +9150,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -9080,13 +9224,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9094,58 +9238,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -9219,13 +9366,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9233,58 +9380,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -9358,13 +9508,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9372,58 +9522,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -9497,13 +9650,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9511,58 +9664,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -9636,13 +9792,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9650,58 +9806,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -9775,13 +9934,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9789,58 +9948,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -9914,13 +10076,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9928,58 +10090,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -10053,13 +10218,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -10067,58 +10232,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -10192,13 +10360,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -10206,58 +10374,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -10331,13 +10502,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -10345,58 +10516,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -10470,13 +10644,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -10484,58 +10658,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -10609,13 +10786,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -10623,58 +10800,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -10748,13 +10928,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -10762,58 +10942,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -10887,13 +11070,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -10901,58 +11084,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -11026,13 +11212,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -11040,58 +11226,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -11165,13 +11354,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -11179,58 +11368,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -11304,13 +11496,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -11318,58 +11510,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -11443,13 +11638,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -11457,58 +11652,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -11582,13 +11780,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -11596,58 +11794,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -11721,13 +11922,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -11735,58 +11936,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -11860,13 +12064,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -11874,58 +12078,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F3" t="s">
         <v>495</v>
       </c>
-      <c r="E3" t="s">
-        <v>496</v>
-      </c>
-      <c r="F3" t="s">
-        <v>494</v>
-      </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -11999,13 +12206,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12013,58 +12220,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -12138,13 +12348,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12152,58 +12362,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -12277,13 +12490,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12291,58 +12504,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -12416,13 +12632,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12430,58 +12646,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -12555,13 +12774,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12569,58 +12788,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -12694,13 +12916,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12708,58 +12930,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -12833,13 +13058,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12847,58 +13072,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -12972,13 +13200,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12986,58 +13214,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -13111,13 +13342,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -13125,58 +13356,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -13250,13 +13484,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -13264,58 +13498,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -13389,13 +13626,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -13403,58 +13640,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -13528,13 +13768,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -13542,58 +13782,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -13667,13 +13910,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -13681,58 +13924,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -13806,13 +14052,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -13820,58 +14066,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -13945,13 +14194,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -13959,58 +14208,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -14084,13 +14336,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -14098,58 +14350,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -14223,13 +14478,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -14237,58 +14492,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -14362,13 +14620,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -14376,58 +14634,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -14501,13 +14762,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -14515,58 +14776,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -14640,13 +14904,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -14654,58 +14918,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -14779,13 +15046,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -14793,58 +15060,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -14918,13 +15188,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -14932,58 +15202,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -15057,13 +15330,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -15071,58 +15344,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -15196,13 +15472,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -15210,58 +15486,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -15335,13 +15614,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -15349,58 +15628,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -15474,13 +15756,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -15488,58 +15770,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -15613,13 +15898,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -15627,58 +15912,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -15752,13 +16040,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -15766,58 +16054,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -15891,13 +16182,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -15905,58 +16196,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -16030,13 +16324,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -16044,58 +16338,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -16169,13 +16466,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -16183,58 +16480,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="K3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -16308,13 +16608,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -16322,58 +16622,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="L2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -16447,13 +16750,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -16461,58 +16764,61 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/logement-ville/departements/barometre-resultats-logement-ville-departements-synthese.xlsx
+++ b/secteur-action-publique/logement-ville/departements/barometre-resultats-logement-ville-departements-synthese.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4129" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4129" uniqueCount="699">
   <si>
     <t>mesure</t>
   </si>
@@ -182,663 +182,675 @@
     <t>2021-11-30</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>11376.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>dossiers validés</t>
+  </si>
+  <si>
+    <t>Faciliter l’accès au logement des personnes sans-abri</t>
+  </si>
+  <si>
+    <t>Nombre de personnes sans-abri ou en hébergement ayant obtenu un logement social</t>
+  </si>
+  <si>
+    <t>logement-sans-domicile-hebergement-urgence</t>
+  </si>
+  <si>
+    <t>348.0</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>-15.0</t>
+  </si>
+  <si>
+    <t>-4.0</t>
+  </si>
+  <si>
+    <t>personnes dans l'année*</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Aisne</t>
+  </si>
+  <si>
+    <t>8405.0</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
-    <t>11376.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>dossiers validés</t>
-  </si>
-  <si>
-    <t>Faciliter l’accès au logement des personnes sans-abri</t>
-  </si>
-  <si>
-    <t>Nombre de personnes sans-abri ou en hébergement ayant obtenu un logement social</t>
-  </si>
-  <si>
-    <t>logement-sans-domicile-hebergement-urgence</t>
-  </si>
-  <si>
-    <t>348.0</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
+    <t>12810.0</t>
+  </si>
+  <si>
+    <t>326.0</t>
+  </si>
+  <si>
+    <t>224.0</t>
+  </si>
+  <si>
+    <t>102.0</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Allier</t>
+  </si>
+  <si>
+    <t>5474.0</t>
+  </si>
+  <si>
+    <t>10870.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>-13.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Alpes-de-Haute-Provence</t>
+  </si>
+  <si>
+    <t>2120.0</t>
+  </si>
+  <si>
+    <t>4239.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Hautes-Alpes</t>
+  </si>
+  <si>
+    <t>1669.0</t>
+  </si>
+  <si>
+    <t>3370.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Alpes-Maritimes</t>
+  </si>
+  <si>
+    <t>2583.0</t>
+  </si>
+  <si>
+    <t>5263.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>392.0</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Ardèche</t>
+  </si>
+  <si>
+    <t>5486.0</t>
+  </si>
+  <si>
+    <t>8323.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Ardennes</t>
+  </si>
+  <si>
+    <t>4437.0</t>
+  </si>
+  <si>
+    <t>6322.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>147.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Ariège</t>
+  </si>
+  <si>
+    <t>2581.0</t>
+  </si>
+  <si>
+    <t>4454.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>169.0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Aube</t>
+  </si>
+  <si>
+    <t>4340.0</t>
+  </si>
+  <si>
+    <t>6380.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>211.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Aude</t>
+  </si>
+  <si>
+    <t>4737.0</t>
+  </si>
+  <si>
+    <t>1773.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>238.0</t>
+  </si>
+  <si>
+    <t>227.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Aveyron</t>
+  </si>
+  <si>
+    <t>5196.0</t>
+  </si>
+  <si>
+    <t>8495.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Bouches-du-Rhône</t>
+  </si>
+  <si>
+    <t>8263.0</t>
+  </si>
+  <si>
+    <t>8755.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>1324.0</t>
+  </si>
+  <si>
+    <t>1014.0</t>
+  </si>
+  <si>
+    <t>310.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Calvados</t>
+  </si>
+  <si>
+    <t>9456.0</t>
+  </si>
+  <si>
+    <t>13457.0</t>
+  </si>
+  <si>
+    <t>387.0</t>
+  </si>
+  <si>
+    <t>262.0</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Cantal</t>
+  </si>
+  <si>
+    <t>2310.0</t>
+  </si>
+  <si>
+    <t>4766.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Charente</t>
+  </si>
+  <si>
+    <t>5535.0</t>
+  </si>
+  <si>
+    <t>6705.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>191.0</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Charente-Maritime</t>
+  </si>
+  <si>
+    <t>9307.0</t>
+  </si>
+  <si>
+    <t>8954.0</t>
+  </si>
+  <si>
+    <t>339.0</t>
+  </si>
+  <si>
+    <t>383.0</t>
+  </si>
+  <si>
+    <t>-44.0</t>
+  </si>
+  <si>
+    <t>-11.0</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Cher</t>
+  </si>
+  <si>
+    <t>3863.0</t>
+  </si>
+  <si>
+    <t>7263.0</t>
+  </si>
+  <si>
+    <t>161.0</t>
+  </si>
+  <si>
+    <t>141.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Corrèze</t>
+  </si>
+  <si>
+    <t>4177.0</t>
+  </si>
+  <si>
+    <t>8471.0</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>-69.0</t>
+  </si>
+  <si>
+    <t>-50.0</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Côte-d'Or</t>
+  </si>
+  <si>
+    <t>6549.0</t>
+  </si>
+  <si>
+    <t>13276.0</t>
+  </si>
+  <si>
+    <t>319.0</t>
+  </si>
+  <si>
+    <t>271.0</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Côtes-d'Armor</t>
+  </si>
+  <si>
+    <t>10122.0</t>
+  </si>
+  <si>
+    <t>11977.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>233.0</t>
+  </si>
+  <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Creuse</t>
+  </si>
+  <si>
+    <t>2528.0</t>
+  </si>
+  <si>
+    <t>5268.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Dordogne</t>
+  </si>
+  <si>
+    <t>6402.0</t>
+  </si>
+  <si>
+    <t>6998.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>101.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Doubs</t>
+  </si>
+  <si>
+    <t>7072.0</t>
+  </si>
+  <si>
+    <t>14775.0</t>
+  </si>
+  <si>
+    <t>394.0</t>
+  </si>
+  <si>
+    <t>458.0</t>
+  </si>
+  <si>
+    <t>-64.0</t>
+  </si>
+  <si>
+    <t>-14.0</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Drôme</t>
+  </si>
+  <si>
+    <t>7537.0</t>
+  </si>
+  <si>
+    <t>9092.0</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Eure</t>
+  </si>
+  <si>
+    <t>8293.0</t>
+  </si>
+  <si>
+    <t>13559.0</t>
+  </si>
+  <si>
+    <t>407.0</t>
+  </si>
+  <si>
+    <t>409.0</t>
+  </si>
+  <si>
+    <t>-2.0</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Eure-et-Loir</t>
+  </si>
+  <si>
+    <t>5782.0</t>
+  </si>
+  <si>
+    <t>10460.0</t>
+  </si>
+  <si>
+    <t>249.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Finistère</t>
+  </si>
+  <si>
+    <t>16562.0</t>
+  </si>
+  <si>
+    <t>21293.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
   </si>
   <si>
     <t>363.0</t>
   </si>
   <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>-15.0</t>
-  </si>
-  <si>
-    <t>-4.0</t>
-  </si>
-  <si>
-    <t>personnes dans l'année*</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Aisne</t>
-  </si>
-  <si>
-    <t>8405.0</t>
-  </si>
-  <si>
-    <t>12810.0</t>
-  </si>
-  <si>
-    <t>326.0</t>
-  </si>
-  <si>
-    <t>224.0</t>
-  </si>
-  <si>
-    <t>102.0</t>
-  </si>
-  <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Allier</t>
-  </si>
-  <si>
-    <t>5474.0</t>
-  </si>
-  <si>
-    <t>10870.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>103.0</t>
-  </si>
-  <si>
-    <t>-13.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Alpes-de-Haute-Provence</t>
-  </si>
-  <si>
-    <t>2120.0</t>
-  </si>
-  <si>
-    <t>4239.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>165.0</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Hautes-Alpes</t>
-  </si>
-  <si>
-    <t>1669.0</t>
-  </si>
-  <si>
-    <t>3370.0</t>
-  </si>
-  <si>
-    <t>88.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Alpes-Maritimes</t>
-  </si>
-  <si>
-    <t>2583.0</t>
-  </si>
-  <si>
-    <t>5263.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>286.0</t>
-  </si>
-  <si>
-    <t>106.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>Ardèche</t>
-  </si>
-  <si>
-    <t>5486.0</t>
-  </si>
-  <si>
-    <t>8323.0</t>
-  </si>
-  <si>
-    <t>132.0</t>
-  </si>
-  <si>
-    <t>112.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Ardennes</t>
-  </si>
-  <si>
-    <t>4437.0</t>
-  </si>
-  <si>
-    <t>6322.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>147.0</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>Ariège</t>
-  </si>
-  <si>
-    <t>2581.0</t>
-  </si>
-  <si>
-    <t>4454.0</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>169.0</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Aube</t>
-  </si>
-  <si>
-    <t>4340.0</t>
-  </si>
-  <si>
-    <t>6380.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>211.0</t>
-  </si>
-  <si>
-    <t>134.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Aude</t>
-  </si>
-  <si>
-    <t>4737.0</t>
-  </si>
-  <si>
-    <t>1773.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>238.0</t>
-  </si>
-  <si>
-    <t>227.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Aveyron</t>
-  </si>
-  <si>
-    <t>5196.0</t>
-  </si>
-  <si>
-    <t>8495.0</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Bouches-du-Rhône</t>
-  </si>
-  <si>
-    <t>8263.0</t>
-  </si>
-  <si>
-    <t>8755.0</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>1324.0</t>
-  </si>
-  <si>
-    <t>1014.0</t>
-  </si>
-  <si>
-    <t>310.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Calvados</t>
-  </si>
-  <si>
-    <t>9456.0</t>
-  </si>
-  <si>
-    <t>13457.0</t>
-  </si>
-  <si>
-    <t>387.0</t>
-  </si>
-  <si>
-    <t>262.0</t>
-  </si>
-  <si>
-    <t>125.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Cantal</t>
-  </si>
-  <si>
-    <t>2310.0</t>
-  </si>
-  <si>
-    <t>4766.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>119.0</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Charente</t>
-  </si>
-  <si>
-    <t>5535.0</t>
-  </si>
-  <si>
-    <t>6705.0</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>191.0</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Charente-Maritime</t>
-  </si>
-  <si>
-    <t>9307.0</t>
-  </si>
-  <si>
-    <t>8954.0</t>
-  </si>
-  <si>
-    <t>339.0</t>
-  </si>
-  <si>
-    <t>383.0</t>
-  </si>
-  <si>
-    <t>-44.0</t>
-  </si>
-  <si>
-    <t>-11.0</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Cher</t>
-  </si>
-  <si>
-    <t>3863.0</t>
-  </si>
-  <si>
-    <t>7263.0</t>
-  </si>
-  <si>
-    <t>161.0</t>
-  </si>
-  <si>
-    <t>141.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Corrèze</t>
-  </si>
-  <si>
-    <t>4177.0</t>
-  </si>
-  <si>
-    <t>8471.0</t>
-  </si>
-  <si>
-    <t>139.0</t>
-  </si>
-  <si>
-    <t>-69.0</t>
-  </si>
-  <si>
-    <t>-50.0</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Côte-d'Or</t>
-  </si>
-  <si>
-    <t>6549.0</t>
-  </si>
-  <si>
-    <t>13276.0</t>
-  </si>
-  <si>
-    <t>319.0</t>
-  </si>
-  <si>
-    <t>271.0</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Côtes-d'Armor</t>
-  </si>
-  <si>
-    <t>10122.0</t>
-  </si>
-  <si>
-    <t>11977.0</t>
-  </si>
-  <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>233.0</t>
-  </si>
-  <si>
-    <t>183.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Creuse</t>
-  </si>
-  <si>
-    <t>2528.0</t>
-  </si>
-  <si>
-    <t>5268.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>110.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Dordogne</t>
-  </si>
-  <si>
-    <t>6402.0</t>
-  </si>
-  <si>
-    <t>6998.0</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>101.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Doubs</t>
-  </si>
-  <si>
-    <t>7072.0</t>
-  </si>
-  <si>
-    <t>14775.0</t>
-  </si>
-  <si>
-    <t>394.0</t>
-  </si>
-  <si>
-    <t>458.0</t>
-  </si>
-  <si>
-    <t>-64.0</t>
-  </si>
-  <si>
-    <t>-14.0</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Drôme</t>
-  </si>
-  <si>
-    <t>7537.0</t>
-  </si>
-  <si>
-    <t>9092.0</t>
-  </si>
-  <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Eure</t>
-  </si>
-  <si>
-    <t>8293.0</t>
-  </si>
-  <si>
-    <t>13559.0</t>
-  </si>
-  <si>
-    <t>407.0</t>
-  </si>
-  <si>
-    <t>409.0</t>
-  </si>
-  <si>
-    <t>-2.0</t>
-  </si>
-  <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Eure-et-Loir</t>
-  </si>
-  <si>
-    <t>5782.0</t>
-  </si>
-  <si>
-    <t>10460.0</t>
-  </si>
-  <si>
-    <t>249.0</t>
-  </si>
-  <si>
-    <t>130.0</t>
-  </si>
-  <si>
-    <t>109.0</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Finistère</t>
-  </si>
-  <si>
-    <t>16562.0</t>
-  </si>
-  <si>
-    <t>21293.0</t>
-  </si>
-  <si>
-    <t>78.0</t>
-  </si>
-  <si>
     <t>299.0</t>
   </si>
   <si>
@@ -863,6 +875,9 @@
     <t>69.0</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>2B</t>
   </si>
   <si>
@@ -983,7 +998,7 @@
     <t>772.0</t>
   </si>
   <si>
-    <t>737.0</t>
+    <t>737</t>
   </si>
   <si>
     <t>35</t>
@@ -1037,7 +1052,7 @@
     <t>469.0</t>
   </si>
   <si>
-    <t>374.0</t>
+    <t>374</t>
   </si>
   <si>
     <t>95.0</t>
@@ -1115,6 +1130,9 @@
     <t>222.0</t>
   </si>
   <si>
+    <t>165</t>
+  </si>
+  <si>
     <t>42</t>
   </si>
   <si>
@@ -1217,6 +1235,9 @@
     <t>87.0</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>47</t>
   </si>
   <si>
@@ -1358,9 +1379,6 @@
     <t>-37.0</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>Meuse</t>
   </si>
   <si>
@@ -1388,6 +1406,9 @@
     <t>13883.0</t>
   </si>
   <si>
+    <t>341</t>
+  </si>
+  <si>
     <t>57</t>
   </si>
   <si>
@@ -1568,9 +1589,6 @@
     <t>65.0</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>Pyrénées-Orientales</t>
   </si>
   <si>
@@ -1616,7 +1634,7 @@
     <t>13398.0</t>
   </si>
   <si>
-    <t>385.0</t>
+    <t>385</t>
   </si>
   <si>
     <t>244.0</t>
@@ -1757,7 +1775,7 @@
     <t>2136.0</t>
   </si>
   <si>
-    <t>2420.0</t>
+    <t>2420</t>
   </si>
   <si>
     <t>-284.0</t>
@@ -1787,9 +1805,6 @@
     <t>-68.0</t>
   </si>
   <si>
-    <t>77</t>
-  </si>
-  <si>
     <t>Seine-et-Marne</t>
   </si>
   <si>
@@ -1892,6 +1907,9 @@
     <t>99.0</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>83</t>
   </si>
   <si>
@@ -1907,7 +1925,7 @@
     <t>488.0</t>
   </si>
   <si>
-    <t>418.0</t>
+    <t>418</t>
   </si>
   <si>
     <t>84</t>
@@ -1985,9 +2003,6 @@
     <t>116.0</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>Vosges</t>
   </si>
   <si>
@@ -2012,6 +2027,9 @@
     <t>8957.0</t>
   </si>
   <si>
+    <t>132</t>
+  </si>
+  <si>
     <t>90</t>
   </si>
   <si>
@@ -2084,7 +2102,7 @@
     <t>2070.0</t>
   </si>
   <si>
-    <t>2288.0</t>
+    <t>2288</t>
   </si>
   <si>
     <t>-218.0</t>
@@ -2105,7 +2123,7 @@
     <t>1388.0</t>
   </si>
   <si>
-    <t>1562.0</t>
+    <t>1562</t>
   </si>
   <si>
     <t>-174.0</t>
@@ -2126,6 +2144,9 @@
     <t>1113.0</t>
   </si>
   <si>
+    <t>1111</t>
+  </si>
+  <si>
     <t>971</t>
   </si>
   <si>
@@ -2180,16 +2201,13 @@
     <t>893.0</t>
   </si>
   <si>
-    <t>528.0</t>
+    <t>528</t>
   </si>
   <si>
     <t>976</t>
   </si>
   <si>
     <t>Mayotte</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>67.0</t>
@@ -2730,31 +2748,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2774,28 +2792,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -2872,13 +2890,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="E2" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F2" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2890,13 +2908,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="L2" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="M2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -2916,28 +2934,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="E3" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F3" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="K3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -3014,31 +3032,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="E2" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="F2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>691</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L2" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="M2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3118,31 +3136,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3162,28 +3180,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -3260,13 +3278,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3278,13 +3296,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3304,28 +3322,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -3402,31 +3420,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3446,28 +3464,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -3544,31 +3562,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3588,28 +3606,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -3686,31 +3704,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" t="s">
         <v>144</v>
-      </c>
-      <c r="L2" t="s">
-        <v>145</v>
-      </c>
-      <c r="M2" t="s">
-        <v>141</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3730,28 +3748,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -3828,31 +3846,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3872,28 +3890,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -3970,31 +3988,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4014,28 +4032,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -4112,31 +4130,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4156,28 +4174,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -4254,31 +4272,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4298,28 +4316,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -4408,7 +4426,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -4417,7 +4435,7 @@
         <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
         <v>25</v>
@@ -4446,22 +4464,22 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -4538,31 +4556,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4582,28 +4600,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -4680,31 +4698,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4724,28 +4742,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -4822,31 +4840,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4866,28 +4884,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -4964,31 +4982,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5008,28 +5026,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -5106,31 +5124,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5150,28 +5168,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -5248,13 +5266,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5266,13 +5284,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5292,28 +5310,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -5390,31 +5408,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5434,28 +5452,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -5532,31 +5550,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5576,28 +5594,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -5674,31 +5692,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5718,28 +5736,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>244</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -5816,13 +5834,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5834,13 +5852,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -5860,28 +5878,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -5958,31 +5976,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6002,28 +6020,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -6100,31 +6118,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L2" t="s">
+        <v>257</v>
+      </c>
+      <c r="M2" t="s">
         <v>252</v>
-      </c>
-      <c r="M2" t="s">
-        <v>248</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6144,28 +6162,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -6242,31 +6260,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6286,28 +6304,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -6384,31 +6402,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6428,28 +6446,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -6526,31 +6544,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6570,19 +6588,19 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
@@ -6591,7 +6609,7 @@
         <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -6668,31 +6686,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6712,28 +6730,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -6810,13 +6828,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6828,13 +6846,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6854,28 +6872,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -6952,31 +6970,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -6996,28 +7014,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -7094,31 +7112,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -7138,28 +7156,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -7236,13 +7254,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7254,13 +7272,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -7280,28 +7298,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -7378,31 +7396,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -7422,28 +7440,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -7520,31 +7538,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -7564,28 +7582,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -7662,31 +7680,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -7706,28 +7724,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -7804,31 +7822,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -7848,28 +7866,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -7946,13 +7964,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7964,13 +7982,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -7990,28 +8008,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F3" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>338</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -8088,31 +8106,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -8132,28 +8150,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E3" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F3" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -8230,31 +8248,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -8274,19 +8292,19 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
@@ -8372,31 +8390,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -8416,28 +8434,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F3" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="K3" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -8514,31 +8532,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="L2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -8558,28 +8576,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E3" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F3" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="K3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -8656,13 +8674,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8674,13 +8692,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -8700,28 +8718,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E3" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>373</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -8798,31 +8816,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F2" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="L2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -8842,28 +8860,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K3" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -8940,31 +8958,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F2" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="L2" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -8984,28 +9002,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K3" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -9082,13 +9100,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9100,13 +9118,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -9126,28 +9144,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -9224,31 +9242,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="F2" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="L2" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -9268,28 +9286,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E3" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="F3" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -9366,31 +9384,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E2" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="L2" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="M2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -9410,28 +9428,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="K3" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -9508,31 +9526,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E2" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="F2" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L2" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="M2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -9552,28 +9570,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E3" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="F3" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="K3" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -9650,31 +9668,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="F2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L2" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="M2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -9694,28 +9712,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E3" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -9792,31 +9810,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="E2" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="F2" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -9836,28 +9854,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="E3" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="F3" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K3" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -9934,31 +9952,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E2" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="F2" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="L2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="M2" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -9978,28 +9996,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E3" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="F3" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="K3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -10076,31 +10094,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="E2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -10120,28 +10138,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="E3" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K3" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -10218,13 +10236,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="E2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -10236,13 +10254,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -10262,28 +10280,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="E3" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -10360,31 +10378,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E2" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="F2" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="L2" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="M2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -10404,28 +10422,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E3" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="F3" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -10502,31 +10520,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="E2" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="F2" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="L2" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -10546,28 +10564,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="E3" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="K3" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -10644,13 +10662,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -10662,13 +10680,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -10688,28 +10706,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -10786,31 +10804,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E2" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="F2" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="L2" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="M2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -10830,28 +10848,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E3" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="F3" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -10928,31 +10946,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="E2" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="F2" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="L2" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -10972,28 +10990,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="E3" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="F3" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="K3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -11070,28 +11088,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E2" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F2" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="L2" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M2" t="s">
         <v>25</v>
@@ -11114,28 +11132,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E3" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F3" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -11212,31 +11230,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E2" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="F2" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="L2" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -11256,28 +11274,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E3" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="F3" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="K3" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -11354,31 +11372,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="E2" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="F2" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="L2" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="M2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -11398,28 +11416,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="E3" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="K3" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -11496,31 +11514,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="E2" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L2" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="M2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -11540,28 +11558,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="E3" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F3" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K3" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -11638,31 +11656,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="E2" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="F2" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="L2" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="M2" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -11682,10 +11700,10 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="E3" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -11694,16 +11712,16 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -11780,31 +11798,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>484</v>
+        <v>253</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="L2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -11824,28 +11842,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>484</v>
+        <v>253</v>
       </c>
       <c r="E3" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -11922,31 +11940,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="E2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F2" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="L2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -11966,28 +11984,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="E3" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F3" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="K3" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -12064,13 +12082,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12082,13 +12100,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="L2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -12108,28 +12126,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="E3" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F3" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="K3" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -12206,28 +12224,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s">
         <v>25</v>
@@ -12250,28 +12268,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -12348,31 +12366,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="E2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="L2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -12392,28 +12410,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="E3" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F3" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="K3" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -12490,31 +12508,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="E2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="F2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="L2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="M2" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -12534,28 +12552,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="E3" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="F3" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -12632,31 +12650,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="E2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="F2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="L2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="M2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -12676,28 +12694,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="E3" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="F3" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K3" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -12774,31 +12792,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="E2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="F2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="L2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -12818,28 +12836,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="E3" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="F3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K3" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -12916,31 +12934,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="E2" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="L2" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="M2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -12960,28 +12978,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="E3" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K3" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -13058,31 +13076,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="E2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="F2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="L2" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="M2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -13102,28 +13120,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="E3" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="F3" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -13200,13 +13218,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="E2" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="F2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -13218,13 +13236,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="L2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="M2" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -13244,28 +13262,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="E3" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="F3" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="K3" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -13342,31 +13360,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="E2" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F2" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="L2" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="M2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -13386,28 +13404,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="E3" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F3" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="K3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -13484,31 +13502,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>557</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="F2" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="L2" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="M2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -13528,28 +13546,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>557</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="F3" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -13626,31 +13644,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="E2" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F2" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="L2" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -13670,28 +13688,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="E3" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F3" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="K3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -13768,31 +13786,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -13812,28 +13830,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -13910,31 +13928,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="E2" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="L2" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -13954,28 +13972,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="E3" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F3" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -14052,31 +14070,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="E2" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="F2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L2" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="M2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -14096,28 +14114,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="E3" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="F3" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="K3" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -14194,31 +14212,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="E2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F2" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="L2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -14238,28 +14256,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="E3" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -14336,13 +14354,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="E2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="F2" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -14354,13 +14372,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="L2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -14380,28 +14398,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="E3" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="F3" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>197</v>
+        <v>597</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -14478,13 +14496,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="E2" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="F2" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -14496,13 +14514,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="L2" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -14522,28 +14540,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="E3" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="F3" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -14620,31 +14638,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="E2" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="F2" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="L2" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="M2" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -14664,28 +14682,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="E3" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="F3" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K3" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -14762,31 +14780,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="E2" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="F2" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="L2" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -14806,28 +14824,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="E3" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="F3" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="K3" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -14904,31 +14922,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="E2" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="F2" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="L2" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="M2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -14948,28 +14966,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="E3" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="F3" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K3" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -15046,31 +15064,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="E2" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="F2" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="L2" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="M2" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -15090,28 +15108,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="E3" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="F3" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="K3" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -15188,31 +15206,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>623</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="F2" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="L2" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="M2" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -15232,28 +15250,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>623</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="F3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="K3" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -15330,31 +15348,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -15374,28 +15392,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -15472,13 +15490,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="E2" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="F2" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -15490,13 +15508,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="L2" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="M2" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -15516,28 +15534,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="E3" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="F3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>637</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K3" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -15614,31 +15632,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="E2" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="F2" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="L2" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -15658,28 +15676,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="E3" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -15756,31 +15774,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="E2" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="F2" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="L2" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -15800,28 +15818,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="E3" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="F3" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="K3" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -15898,31 +15916,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="E2" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="F2" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="L2" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="M2" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -15942,28 +15960,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="E3" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="F3" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="K3" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -16040,13 +16058,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="E2" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="F2" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -16058,13 +16076,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="L2" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -16084,28 +16102,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="E3" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="F3" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="K3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -16182,13 +16200,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="E2" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="F2" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -16200,13 +16218,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="L2" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="M2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -16226,28 +16244,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="E3" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="F3" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="K3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -16324,13 +16342,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="E2" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="F2" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -16342,13 +16360,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="L2" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -16368,28 +16386,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="E3" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="F3" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>349</v>
+        <v>676</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -16466,31 +16484,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="E2" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="F2" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="L2" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="M2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -16510,28 +16528,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="E3" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="F3" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="K3" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -16608,31 +16626,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="E2" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="F2" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="L2" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="M2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -16652,28 +16670,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="E3" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -16750,31 +16768,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="E2" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -16794,28 +16812,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="E3" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K3" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
